--- a/data/Medidas_acelelometro.xlsx
+++ b/data/Medidas_acelelometro.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5c03913521fbc79/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{39349801-CD94-4701-A0B3-F355F173D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3210AED3-392F-4765-BCC2-6388DE951E77}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{39349801-CD94-4701-A0B3-F355F173D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1376D58D-3D93-474E-95F2-25F06669D5EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3B8D7F49-71CF-46A1-877D-1EF08F0BD851}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{3B8D7F49-71CF-46A1-877D-1EF08F0BD851}"/>
   </bookViews>
   <sheets>
-    <sheet name="Acelelometro" sheetId="1" r:id="rId1"/>
-    <sheet name="Gyroscopio" sheetId="2" r:id="rId2"/>
+    <sheet name="Acelerometro" sheetId="1" r:id="rId1"/>
+    <sheet name="Giroscopio" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="413">
   <si>
     <t>-0.68</t>
   </si>
@@ -649,13 +649,640 @@
   </si>
   <si>
     <t>84.90</t>
+  </si>
+  <si>
+    <t>-0.00</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.02</t>
+  </si>
+  <si>
+    <t>46.03</t>
+  </si>
+  <si>
+    <t>46.06</t>
+  </si>
+  <si>
+    <t>46.07</t>
+  </si>
+  <si>
+    <t>46.09</t>
+  </si>
+  <si>
+    <t>46.10</t>
+  </si>
+  <si>
+    <t>46.11</t>
+  </si>
+  <si>
+    <t>46.13</t>
+  </si>
+  <si>
+    <t>46.16</t>
+  </si>
+  <si>
+    <t>46.19</t>
+  </si>
+  <si>
+    <t>46.21</t>
+  </si>
+  <si>
+    <t>46.26</t>
+  </si>
+  <si>
+    <t>46.30</t>
+  </si>
+  <si>
+    <t>46.32</t>
+  </si>
+  <si>
+    <t>46.34</t>
+  </si>
+  <si>
+    <t>46.37</t>
+  </si>
+  <si>
+    <t>46.41</t>
+  </si>
+  <si>
+    <t>46.44</t>
+  </si>
+  <si>
+    <t>46.47</t>
+  </si>
+  <si>
+    <t>46.42</t>
+  </si>
+  <si>
+    <t>46.31</t>
+  </si>
+  <si>
+    <t>46.25</t>
+  </si>
+  <si>
+    <t>46.18</t>
+  </si>
+  <si>
+    <t>46.20</t>
+  </si>
+  <si>
+    <t>46.24</t>
+  </si>
+  <si>
+    <t>46.27</t>
+  </si>
+  <si>
+    <t>46.29</t>
+  </si>
+  <si>
+    <t>46.36</t>
+  </si>
+  <si>
+    <t>46.38</t>
+  </si>
+  <si>
+    <t>46.39</t>
+  </si>
+  <si>
+    <t>46.45</t>
+  </si>
+  <si>
+    <t>46.49</t>
+  </si>
+  <si>
+    <t>46.52</t>
+  </si>
+  <si>
+    <t>46.54</t>
+  </si>
+  <si>
+    <t>46.55</t>
+  </si>
+  <si>
+    <t>46.56</t>
+  </si>
+  <si>
+    <t>46.57</t>
+  </si>
+  <si>
+    <t>46.60</t>
+  </si>
+  <si>
+    <t>46.63</t>
+  </si>
+  <si>
+    <t>46.67</t>
+  </si>
+  <si>
+    <t>46.71</t>
+  </si>
+  <si>
+    <t>46.73</t>
+  </si>
+  <si>
+    <t>46.78</t>
+  </si>
+  <si>
+    <t>46.82</t>
+  </si>
+  <si>
+    <t>46.84</t>
+  </si>
+  <si>
+    <t>46.85</t>
+  </si>
+  <si>
+    <t>46.86</t>
+  </si>
+  <si>
+    <t>46.89</t>
+  </si>
+  <si>
+    <t>46.94</t>
+  </si>
+  <si>
+    <t>46.97</t>
+  </si>
+  <si>
+    <t>46.98</t>
+  </si>
+  <si>
+    <t>46.99</t>
+  </si>
+  <si>
+    <t>47.01</t>
+  </si>
+  <si>
+    <t>47.02</t>
+  </si>
+  <si>
+    <t>47.05</t>
+  </si>
+  <si>
+    <t>47.09</t>
+  </si>
+  <si>
+    <t>47.10</t>
+  </si>
+  <si>
+    <t>47.12</t>
+  </si>
+  <si>
+    <t>47.13</t>
+  </si>
+  <si>
+    <t>47.17</t>
+  </si>
+  <si>
+    <t>47.21</t>
+  </si>
+  <si>
+    <t>47.25</t>
+  </si>
+  <si>
+    <t>47.26</t>
+  </si>
+  <si>
+    <t>47.29</t>
+  </si>
+  <si>
+    <t>47.32</t>
+  </si>
+  <si>
+    <t>47.33</t>
+  </si>
+  <si>
+    <t>47.34</t>
+  </si>
+  <si>
+    <t>47.36</t>
+  </si>
+  <si>
+    <t>47.37</t>
+  </si>
+  <si>
+    <t>47.40</t>
+  </si>
+  <si>
+    <t>47.43</t>
+  </si>
+  <si>
+    <t>47.44</t>
+  </si>
+  <si>
+    <t>47.45</t>
+  </si>
+  <si>
+    <t>47.47</t>
+  </si>
+  <si>
+    <t>47.48</t>
+  </si>
+  <si>
+    <t>47.49</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t>47.52</t>
+  </si>
+  <si>
+    <t>47.54</t>
+  </si>
+  <si>
+    <t>47.55</t>
+  </si>
+  <si>
+    <t>47.57</t>
+  </si>
+  <si>
+    <t>47.62</t>
+  </si>
+  <si>
+    <t>47.65</t>
+  </si>
+  <si>
+    <t>47.67</t>
+  </si>
+  <si>
+    <t>47.68</t>
+  </si>
+  <si>
+    <t>91.18</t>
+  </si>
+  <si>
+    <t>91.15</t>
+  </si>
+  <si>
+    <t>91.12</t>
+  </si>
+  <si>
+    <t>91.08</t>
+  </si>
+  <si>
+    <t>91.04</t>
+  </si>
+  <si>
+    <t>91.02</t>
+  </si>
+  <si>
+    <t>91.03</t>
+  </si>
+  <si>
+    <t>91.00</t>
+  </si>
+  <si>
+    <t>90.99</t>
+  </si>
+  <si>
+    <t>90.98</t>
+  </si>
+  <si>
+    <t>90.96</t>
+  </si>
+  <si>
+    <t>90.95</t>
+  </si>
+  <si>
+    <t>90.94</t>
+  </si>
+  <si>
+    <t>90.91</t>
+  </si>
+  <si>
+    <t>90.89</t>
+  </si>
+  <si>
+    <t>90.88</t>
+  </si>
+  <si>
+    <t>90.87</t>
+  </si>
+  <si>
+    <t>90.85</t>
+  </si>
+  <si>
+    <t>90.81</t>
+  </si>
+  <si>
+    <t>90.76</t>
+  </si>
+  <si>
+    <t>90.73</t>
+  </si>
+  <si>
+    <t>90.72</t>
+  </si>
+  <si>
+    <t>90.71</t>
+  </si>
+  <si>
+    <t>90.69</t>
+  </si>
+  <si>
+    <t>90.66</t>
+  </si>
+  <si>
+    <t>90.64</t>
+  </si>
+  <si>
+    <t>90.63</t>
+  </si>
+  <si>
+    <t>90.62</t>
+  </si>
+  <si>
+    <t>90.60</t>
+  </si>
+  <si>
+    <t>90.59</t>
+  </si>
+  <si>
+    <t>90.58</t>
+  </si>
+  <si>
+    <t>90.57</t>
+  </si>
+  <si>
+    <t>90.55</t>
+  </si>
+  <si>
+    <t>90.53</t>
+  </si>
+  <si>
+    <t>90.52</t>
+  </si>
+  <si>
+    <t>90.50</t>
+  </si>
+  <si>
+    <t>90.49</t>
+  </si>
+  <si>
+    <t>90.47</t>
+  </si>
+  <si>
+    <t>90.45</t>
+  </si>
+  <si>
+    <t>90.42</t>
+  </si>
+  <si>
+    <t>90.39</t>
+  </si>
+  <si>
+    <t>90.38</t>
+  </si>
+  <si>
+    <t>90.37</t>
+  </si>
+  <si>
+    <t>90.34</t>
+  </si>
+  <si>
+    <t>90.33</t>
+  </si>
+  <si>
+    <t>90.31</t>
+  </si>
+  <si>
+    <t>90.30</t>
+  </si>
+  <si>
+    <t>90.29</t>
+  </si>
+  <si>
+    <t>90.27</t>
+  </si>
+  <si>
+    <t>90.25</t>
+  </si>
+  <si>
+    <t>90.23</t>
+  </si>
+  <si>
+    <t>90.20</t>
+  </si>
+  <si>
+    <t>90.19</t>
+  </si>
+  <si>
+    <t>90.18</t>
+  </si>
+  <si>
+    <t>90.17</t>
+  </si>
+  <si>
+    <t>90.15</t>
+  </si>
+  <si>
+    <t>90.13</t>
+  </si>
+  <si>
+    <t>90.11</t>
+  </si>
+  <si>
+    <t>90.10</t>
+  </si>
+  <si>
+    <t>90.08</t>
+  </si>
+  <si>
+    <t>90.06</t>
+  </si>
+  <si>
+    <t>90.03</t>
+  </si>
+  <si>
+    <t>89.99</t>
+  </si>
+  <si>
+    <t>89.96</t>
+  </si>
+  <si>
+    <t>89.95</t>
+  </si>
+  <si>
+    <t>89.94</t>
+  </si>
+  <si>
+    <t>89.92</t>
+  </si>
+  <si>
+    <t>89.90</t>
+  </si>
+  <si>
+    <t>89.89</t>
+  </si>
+  <si>
+    <t>89.88</t>
+  </si>
+  <si>
+    <t>89.87</t>
+  </si>
+  <si>
+    <t>89.86</t>
+  </si>
+  <si>
+    <t>89.84</t>
+  </si>
+  <si>
+    <t>89.83</t>
+  </si>
+  <si>
+    <t>89.82</t>
+  </si>
+  <si>
+    <t>89.80</t>
+  </si>
+  <si>
+    <t>89.78</t>
+  </si>
+  <si>
+    <t>89.75</t>
+  </si>
+  <si>
+    <t>89.73</t>
+  </si>
+  <si>
+    <t>89.72</t>
+  </si>
+  <si>
+    <t>89.70</t>
+  </si>
+  <si>
+    <t>89.69</t>
+  </si>
+  <si>
+    <t>89.68</t>
+  </si>
+  <si>
+    <t>89.66</t>
+  </si>
+  <si>
+    <t>89.64</t>
+  </si>
+  <si>
+    <t>89.63</t>
+  </si>
+  <si>
+    <t>89.60</t>
+  </si>
+  <si>
+    <t>89.58</t>
+  </si>
+  <si>
+    <t>89.57</t>
+  </si>
+  <si>
+    <t>89.56</t>
+  </si>
+  <si>
+    <t>89.55</t>
+  </si>
+  <si>
+    <t>89.53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +1302,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,7 +1335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -709,6 +1344,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,6 +1360,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1025,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506BB636-23DA-43D3-BED2-F900509096C1}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2149,12 +2789,1137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176EBB5B-381D-4452-AE9B-7D147EB14B23}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" t="s">
+        <v>287</v>
+      </c>
+      <c r="C64" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" t="s">
+        <v>289</v>
+      </c>
+      <c r="C66" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" t="s">
+        <v>290</v>
+      </c>
+      <c r="C67" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" t="s">
+        <v>292</v>
+      </c>
+      <c r="C69" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>294</v>
+      </c>
+      <c r="C72" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>230</v>
+      </c>
+      <c r="B81" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" t="s">
+        <v>301</v>
+      </c>
+      <c r="C82" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>302</v>
+      </c>
+      <c r="C83" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" t="s">
+        <v>303</v>
+      </c>
+      <c r="C84" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>304</v>
+      </c>
+      <c r="C85" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" t="s">
+        <v>305</v>
+      </c>
+      <c r="C86" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" t="s">
+        <v>308</v>
+      </c>
+      <c r="C89" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" t="s">
+        <v>309</v>
+      </c>
+      <c r="C90" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>232</v>
+      </c>
+      <c r="B91" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" t="s">
+        <v>311</v>
+      </c>
+      <c r="C92" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>217</v>
+      </c>
+      <c r="B96" t="s">
+        <v>315</v>
+      </c>
+      <c r="C96" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>234</v>
+      </c>
+      <c r="B97" t="s">
+        <v>315</v>
+      </c>
+      <c r="C97" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" t="s">
+        <v>317</v>
+      </c>
+      <c r="C99" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" t="s">
+        <v>318</v>
+      </c>
+      <c r="C100" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>234</v>
+      </c>
+      <c r="B101" t="s">
+        <v>319</v>
+      </c>
+      <c r="C101" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" t="s">
+        <v>320</v>
+      </c>
+      <c r="C102" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>